--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value58.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value58.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8227415887203052</v>
+        <v>1.782084584236145</v>
       </c>
       <c r="B1">
-        <v>1.622142405326502</v>
+        <v>3.173549652099609</v>
       </c>
       <c r="C1">
-        <v>2.483515065159557</v>
+        <v>3.627765893936157</v>
       </c>
       <c r="D1">
-        <v>2.885789937135004</v>
+        <v>3.981268167495728</v>
       </c>
       <c r="E1">
-        <v>1.321440005042616</v>
+        <v>1.784870743751526</v>
       </c>
     </row>
   </sheetData>
